--- a/iselUssSyncV2/OutputForces/sumDataTable_Auswertung.xlsx
+++ b/iselUssSyncV2/OutputForces/sumDataTable_Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Documents\GitHub\iselTraverse\iselUssSyncV2\OutputForces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CB509-C6BD-4C6A-A915-E6FFB532668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9FB60F-DFC8-4856-98E6-545881CB789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>D</t>
   </si>
@@ -153,18 +153,49 @@
   <si>
     <t>hmin - hgr</t>
   </si>
+  <si>
+    <t>deltaH</t>
+  </si>
+  <si>
+    <t>Fmeas/(hmin-hgr)</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>hdown-hmin</t>
+  </si>
+  <si>
+    <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Zielwert</t>
+  </si>
+  <si>
+    <t>Spalte3</t>
+  </si>
+  <si>
+    <t>FS_linkerTeil</t>
+  </si>
+  <si>
+    <t>Fmeasured - FdBR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -182,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -278,12 +309,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -299,12 +354,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -342,12 +427,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71928B2-4DC9-4A5B-9E6B-452FCFA8B934}" name="Tabelle1" displayName="Tabelle1" ref="A1:AN31" totalsRowShown="0">
-  <autoFilter ref="A1:AN31" xr:uid="{D71928B2-4DC9-4A5B-9E6B-452FCFA8B934}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL31">
-    <sortCondition ref="Y1:Y31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71928B2-4DC9-4A5B-9E6B-452FCFA8B934}" name="Tabelle1" displayName="Tabelle1" ref="A1:AV31" totalsRowShown="0">
+  <autoFilter ref="A1:AV31" xr:uid="{D71928B2-4DC9-4A5B-9E6B-452FCFA8B934}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN31">
+    <sortCondition ref="Z1:Z31"/>
   </sortState>
-  <tableColumns count="40">
+  <tableColumns count="48">
     <tableColumn id="1" xr3:uid="{3B6EE66C-B8F9-468F-8AC5-76D3098EA674}" name="D"/>
     <tableColumn id="2" xr3:uid="{2B155476-22E9-41FE-AD69-276C83667684}" name="L"/>
     <tableColumn id="3" xr3:uid="{8B761AEF-5A57-4C55-A293-0AEC23854F43}" name="gamma"/>
@@ -366,7 +451,10 @@
     <tableColumn id="16" xr3:uid="{B0F1CD36-5AF1-442A-9DB0-C056E0728EDC}" name="Aref"/>
     <tableColumn id="17" xr3:uid="{366A0624-031E-4C24-830E-DFDEB6F5CB4A}" name="BR"/>
     <tableColumn id="18" xr3:uid="{C633D2EA-7271-4763-8E59-60265315CF09}" name="mx"/>
-    <tableColumn id="19" xr3:uid="{D7E6F293-128B-4990-92F6-579A9BD66987}" name="FmeasuredUncor" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{D7E6F293-128B-4990-92F6-579A9BD66987}" name="FmeasuredUncor" dataDxfId="9"/>
+    <tableColumn id="49" xr3:uid="{74E6AD32-912D-4C49-9F64-2CF2F26872E3}" name="Fmeasured - FdBR" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="20" xr3:uid="{5EDD650F-95E9-4C75-ACCF-71D2065C5F11}" name="CDgeneral"/>
     <tableColumn id="21" xr3:uid="{63F44B92-2027-4FC7-8EE1-A492E3ED5799}" name="CDBR"/>
     <tableColumn id="22" xr3:uid="{E55E2327-BB3D-43DA-9E6B-D68D0A727956}" name="hgr"/>
@@ -380,6 +468,9 @@
     <tableColumn id="30" xr3:uid="{8B5593F2-22DB-4B4E-A3CE-836DDE5652ED}" name="Fd"/>
     <tableColumn id="31" xr3:uid="{EC3AFE18-34E0-4C6B-AFFF-8264CAAF58A9}" name="FdBR"/>
     <tableColumn id="32" xr3:uid="{8E8A97B2-2428-4B03-AA04-B1CFC51291EB}" name="Fs"/>
+    <tableColumn id="48" xr3:uid="{1DE08B1C-BFCA-4324-BFDA-0FB4931FBFB3}" name="FS_linkerTeil" dataDxfId="1">
+      <calculatedColumnFormula>1000*9.81*0.474*0.05</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="33" xr3:uid="{22962E36-35CA-4751-8B8D-7229F31607EB}" name="FspecMom"/>
     <tableColumn id="34" xr3:uid="{525C82E1-A1E4-40C5-B6EC-F7C366896A07}" name="caseNum"/>
     <tableColumn id="35" xr3:uid="{D87FB25F-0C34-4C1A-9D75-057C451B0059}" name="Ftotal"/>
@@ -389,8 +480,26 @@
     <tableColumn id="39" xr3:uid="{DA16D1E7-3983-4B34-BEF9-3FD87EDCDBA2}" name="Ftotal/Fmeas" dataCellStyle="Prozent">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{3EB4CD34-B0C9-420C-9920-19C5B4837313}" name="hmin - hgr" dataDxfId="0">
+    <tableColumn id="40" xr3:uid="{3EB4CD34-B0C9-420C-9920-19C5B4837313}" name="hmin - hgr" dataDxfId="8">
       <calculatedColumnFormula>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="41" xr3:uid="{CA1CF806-97DC-435E-B0E9-A7BC595756D7}" name="deltaH" dataDxfId="7">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="42" xr3:uid="{142DC096-28E5-4BBC-8DFC-950B3D536805}" name="Fmeas/(hmin-hgr)" dataDxfId="6">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="43" xr3:uid="{FB922262-2C0D-4078-A160-1BC3BDD15BF1}" name="Spalte1" dataDxfId="5">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="44" xr3:uid="{564DD21D-890A-45DF-8DA8-B54A25E27157}" name="hdown-hmin" dataDxfId="4">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="46" xr3:uid="{785EB7E2-DA5B-46F8-A838-336174DE73B0}" name="Spalte2" dataDxfId="3">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="47" xr3:uid="{D0D41432-3363-41D3-AA14-8D8CE443E22B}" name="Spalte3" dataDxfId="2">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -694,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AK37" sqref="AK37"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -716,27 +825,28 @@
     <col min="17" max="17" width="12.7109375" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.140625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <col min="22" max="23" width="13.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" customWidth="1"/>
-    <col min="27" max="28" width="11.7109375" customWidth="1"/>
-    <col min="29" max="29" width="13.5703125" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" customWidth="1"/>
-    <col min="32" max="33" width="12.7109375" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.85546875" customWidth="1"/>
-    <col min="37" max="37" width="13" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" customWidth="1"/>
-    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="23" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" customWidth="1"/>
+    <col min="28" max="29" width="11.7109375" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" customWidth="1"/>
+    <col min="33" max="35" width="12.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.28515625" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" customWidth="1"/>
+    <col min="38" max="38" width="18.85546875" customWidth="1"/>
+    <col min="39" max="39" width="13" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15.75" thickBot="1">
+    <row r="1" spans="1:48" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,71 +904,95 @@
       <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:48">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -917,70 +1051,98 @@
         <v>3.0488522216999998</v>
       </c>
       <c r="T2" s="7">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>0.92868628583783419</v>
+      </c>
+      <c r="U2" s="7">
         <v>3.2409004816795219</v>
       </c>
-      <c r="U2" s="7">
+      <c r="V2" s="7">
         <v>1.4380252838371275</v>
       </c>
-      <c r="V2" s="7">
+      <c r="W2" s="7">
         <v>4.0275932140298593E-2</v>
       </c>
-      <c r="W2" s="7">
+      <c r="X2" s="7">
         <v>3.1817986390835891E-2</v>
       </c>
-      <c r="X2" s="7">
+      <c r="Y2" s="7">
         <v>0.30010849627188335</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Z2" s="7">
         <v>0.23600069622731637</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="AA2" s="7">
         <v>0.29280252825189707</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AB2" s="7">
         <v>82499.437381708252</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AC2" s="7">
         <v>133553.2638751262</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AD2" s="7">
         <v>130000</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AE2" s="7">
         <v>0.94074231496303229</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AF2" s="7">
         <v>2.1201659358621656</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AG2" s="7">
         <v>0.52259217841015249</v>
       </c>
-      <c r="AG2" s="7"/>
       <c r="AH2" s="7">
+        <f t="shared" ref="AH2:AH31" si="0">1000*9.81*0.474*0.05</f>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7">
         <v>3</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AK2" s="7">
         <v>2.642758114272318</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AL2" s="7">
         <v>20220428</v>
       </c>
-      <c r="AK2" s="7">
+      <c r="AM2" s="7">
         <v>0.99530172905568381</v>
       </c>
-      <c r="AL2" s="7">
+      <c r="AN2" s="7">
         <v>0.97040320689137216</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AO2" s="8">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.86680426668851496</v>
       </c>
-      <c r="AN2" s="11">
+      <c r="AP2" s="11">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>3.674454405017763E-2</v>
       </c>
+      <c r="AQ2">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>2.2477372972991155E-3</v>
+      </c>
+      <c r="AR2">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>82.974283679681719</v>
+      </c>
+      <c r="AT2" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.0583577863577429E-2</v>
+      </c>
+      <c r="AU2" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>4.7328121913755059E-2</v>
+      </c>
+      <c r="AV2" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.9692354276721164E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:48">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -1039,70 +1201,98 @@
         <v>3.1214895819000001</v>
       </c>
       <c r="T3" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>0.70981331740799058</v>
+      </c>
+      <c r="U3" s="5">
         <v>2.6381438716380137</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="5">
         <v>1.2943236320143094</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="5">
         <v>4.6736079221438992E-2</v>
       </c>
-      <c r="W3" s="5">
+      <c r="X3" s="5">
         <v>3.6921502584936802E-2</v>
       </c>
-      <c r="X3" s="5">
+      <c r="Y3" s="5">
         <v>0.31879964937058347</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Z3" s="5">
         <v>0.24661528463144569</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AA3" s="5">
         <v>0.31956766307307666</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AB3" s="5">
         <v>100979.99815149204</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AC3" s="5">
         <v>149778.98158882829</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AD3" s="5">
         <v>150000</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AE3" s="5">
         <v>1.1832143104317805</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AF3" s="5">
         <v>2.4116762644920096</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AG3" s="5">
         <v>0.40280301910319261</v>
       </c>
-      <c r="AG3" s="5"/>
       <c r="AH3" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5">
         <v>3</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AK3" s="5">
         <v>2.8144792835952019</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AL3" s="5">
         <v>20220428</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AM3" s="5">
         <v>1.0352658888091797</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AN3" s="5">
         <v>1.017356247726336</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AO3" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.90164622041828957</v>
       </c>
-      <c r="AN3" s="12">
+      <c r="AP3" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>4.0054996475772181E-2</v>
       </c>
+      <c r="AQ3">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>1.7325084586174988E-3</v>
+      </c>
+      <c r="AR3">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>77.93009253634753</v>
+      </c>
+      <c r="AT3" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.1623978879269595E-2</v>
+      </c>
+      <c r="AU3" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>5.1678975355041776E-2</v>
+      </c>
+      <c r="AV3" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-3.5112100342169397E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:48">
       <c r="A4">
         <v>0.05</v>
       </c>
@@ -1161,70 +1351,98 @@
         <v>4.411629593999999</v>
       </c>
       <c r="T4" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>1.270058817070487</v>
+      </c>
+      <c r="U4" s="5">
         <v>2.7790349503559644</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>1.4042750927011771</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>5.2776401275214511E-2</v>
       </c>
-      <c r="W4" s="5">
+      <c r="X4" s="5">
         <v>4.1693357007419468E-2</v>
       </c>
-      <c r="X4" s="5">
+      <c r="Y4" s="5">
         <v>0.36279260528537693</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Z4" s="5">
         <v>0.3324050624734281</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AA4" s="5">
         <v>0.32867930132364753</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AB4" s="5">
         <v>120300.01910043448</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AC4" s="5">
         <v>173488.89578372531</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AD4" s="5">
         <v>170000</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AE4" s="5">
         <v>1.5874681941063453</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AF4" s="5">
         <v>3.141570776929512</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AG4" s="5">
         <v>1.1020635206231879</v>
       </c>
-      <c r="AG4" s="5"/>
       <c r="AH4" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5">
         <v>3</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AK4" s="5">
         <v>4.2436342975526999</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AL4" s="5">
         <v>20220428</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AM4" s="5">
         <v>1.0095025388217302</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AN4" s="5">
         <v>0.96338184129550719</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AO4" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.96191989992183846</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AP4" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>2.7544913465821351E-2</v>
       </c>
+      <c r="AQ4">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>4.7401193160478972E-3</v>
+      </c>
+      <c r="AR4">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>160.16131615276615</v>
+      </c>
+      <c r="AT4" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.8691603961206199E-2</v>
+      </c>
+      <c r="AU4" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>4.623651742702755E-2</v>
+      </c>
+      <c r="AV4" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-3.4084797314008312E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:48">
       <c r="A5">
         <v>0.05</v>
       </c>
@@ -1283,70 +1501,98 @@
         <v>4.7284110401999948</v>
       </c>
       <c r="T5" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>1.1983517911371591</v>
+      </c>
+      <c r="U5" s="5">
         <v>2.5125228231520516</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>1.339470730259074</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <v>5.8488565005636581E-2</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <v>4.6205966354452899E-2</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Y5" s="5">
         <v>0.38160157843492365</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="5">
         <v>0.34190372027747096</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <v>0.3470212193924716</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AB5" s="5">
         <v>138292.7650096571</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <v>188895.56877627506</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <v>190000</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AE5" s="5">
         <v>1.8819375476430622</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AF5" s="5">
         <v>3.5300592490628357</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AG5" s="5">
         <v>1.1913807402565095</v>
       </c>
-      <c r="AG5" s="5"/>
       <c r="AH5" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5">
         <v>3</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AK5" s="5">
         <v>4.7214399893193448</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AL5" s="5">
         <v>20220428</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AM5" s="5">
         <v>1.0247396955116228</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AN5" s="5">
         <v>0.97750629024725832</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AO5" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.99852570962604914</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AP5" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>2.8869808010236447E-2</v>
       </c>
+      <c r="AQ5">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>5.1242843574605679E-3</v>
+      </c>
+      <c r="AR5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>163.78394475375205</v>
+      </c>
+      <c r="AT5" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.8689881697035324E-2</v>
+      </c>
+      <c r="AU5" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>4.7559689707271771E-2</v>
+      </c>
+      <c r="AV5" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-3.9798683308601257E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:48">
       <c r="A6">
         <v>0.05</v>
       </c>
@@ -1405,70 +1651,98 @@
         <v>6.4688587629000027</v>
       </c>
       <c r="T6" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>3.6448197208391053</v>
+      </c>
+      <c r="U6" s="5">
         <v>5.7074178047991442</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <v>2.2906406981467322</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <v>4.0275932140298593E-2</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <v>3.1817986390835891E-2</v>
       </c>
-      <c r="X6" s="5">
+      <c r="Y6" s="5">
         <v>0.34511694542974075</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Z6" s="5">
         <v>0.39043272005177632</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AA6" s="5">
         <v>0.27122823577541694</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AB6" s="5">
         <v>83882.183254259449</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="5">
         <v>146592.97823048659</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AD6" s="5">
         <v>150000</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AE6" s="5">
         <v>1.1334125140550588</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AF6" s="5">
         <v>2.8240390420608974</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AG6" s="5">
         <v>3.4764393694529345</v>
       </c>
-      <c r="AG6" s="5"/>
       <c r="AH6" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5">
         <v>3</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AK6" s="5">
         <v>6.3004784115138319</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AL6" s="5">
         <v>20220426</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AM6" s="5">
         <v>0.90676781426014352</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AN6" s="5">
         <v>0.74113540285180668</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AO6" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.97397062487252617</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AP6" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>1.4785932939066486E-2</v>
       </c>
+      <c r="AQ6">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>1.4952620332533043E-2</v>
+      </c>
+      <c r="AR6">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>437.5008861164506</v>
+      </c>
+      <c r="AT6" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.1844824255257479E-2</v>
+      </c>
+      <c r="AU6" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>2.6630757194323965E-2</v>
+      </c>
+      <c r="AV6" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.8431107885041114E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:48">
       <c r="A7">
         <v>0.05</v>
       </c>
@@ -1527,70 +1801,98 @@
         <v>4.9381388994000019</v>
       </c>
       <c r="T7" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>1.9355433327362799</v>
+      </c>
+      <c r="U7" s="5">
         <v>3.5887500949430722</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <v>1.6446233899182507</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <v>4.6736079221438992E-2</v>
       </c>
-      <c r="W7" s="5">
+      <c r="X7" s="5">
         <v>3.6921502584936802E-2</v>
       </c>
-      <c r="X7" s="5">
+      <c r="Y7" s="5">
         <v>0.35701407508991895</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Z7" s="5">
         <v>0.39691982583064056</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AA7" s="5">
         <v>0.30075826699802732</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AB7" s="5">
         <v>102486.91980467657</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <v>161521.07961087339</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AD7" s="5">
         <v>160000</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AE7" s="5">
         <v>1.3760052298872416</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AF7" s="5">
         <v>3.0025955666637221</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AG7" s="5">
         <v>1.6922813342238019</v>
       </c>
-      <c r="AG7" s="5"/>
       <c r="AH7" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5">
         <v>3</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AK7" s="5">
         <v>4.6948769008875235</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AL7" s="5">
         <v>20220426</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AM7" s="5">
         <v>0.96000516386502377</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AN7" s="5">
         <v>0.88476205527407381</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AO7" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.95073812149309223</v>
       </c>
-      <c r="AN7" s="12">
+      <c r="AP7" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>1.6459476334116568E-2</v>
       </c>
+      <c r="AQ7">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>7.2787233135214735E-3</v>
+      </c>
+      <c r="AR7">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>300.01798351047279</v>
+      </c>
+      <c r="AT7" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.2392856715560433E-2</v>
+      </c>
+      <c r="AU7" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>3.8852333049677001E-2</v>
+      </c>
+      <c r="AV7" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.4343222505878559E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:48">
       <c r="A8">
         <v>0.05</v>
       </c>
@@ -1649,70 +1951,98 @@
         <v>5.3017103177999996</v>
       </c>
       <c r="T8" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>1.8443820612896329</v>
+      </c>
+      <c r="U8" s="5">
         <v>3.1214042793964905</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="5">
         <v>1.5334703344458387</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <v>5.2776401275214518E-2</v>
       </c>
-      <c r="W8" s="5">
+      <c r="X8" s="5">
         <v>4.1693357007419468E-2</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Y8" s="5">
         <v>0.38166218439308464</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Z8" s="5">
         <v>0.42316598073463313</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AA8" s="5">
         <v>0.31996699202459999</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AB8" s="5">
         <v>121137.60691960265</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AC8" s="5">
         <v>179453.59087376454</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AD8" s="5">
         <v>180000</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AE8" s="5">
         <v>1.6985016496565648</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AF8" s="5">
         <v>3.4573282565103667</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AG8" s="5">
         <v>1.7697490546778953</v>
       </c>
-      <c r="AG8" s="5"/>
       <c r="AH8" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5">
         <v>3</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AK8" s="5">
         <v>5.2270773111882622</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AL8" s="5">
         <v>20220426</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AM8" s="5">
         <v>0.97594859984857374</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AN8" s="5">
         <v>0.90188566307523477</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AO8" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.98592284335846037</v>
       </c>
-      <c r="AN8" s="12">
+      <c r="AP8" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>1.5604590788277556E-2</v>
       </c>
+      <c r="AQ8">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>7.6119221094375217E-3</v>
+      </c>
+      <c r="AR8">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>339.75324247417871</v>
+      </c>
+      <c r="AT8" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.4311570749091183E-2</v>
+      </c>
+      <c r="AU8" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>3.9916161537368738E-2</v>
+      </c>
+      <c r="AV8" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.8464830526123336E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:48">
       <c r="A9">
         <v>0.05</v>
       </c>
@@ -1771,70 +2101,98 @@
         <v>6.9357735281999986</v>
       </c>
       <c r="T9" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>4.5999233698874171</v>
+      </c>
+      <c r="U9" s="5">
         <v>8.5962261654782424</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <v>2.9692715962612946</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <v>3.3247049452170704E-2</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <v>2.6265169067214857E-2</v>
       </c>
-      <c r="X9" s="5">
+      <c r="Y9" s="5">
         <v>0.3088410018740626</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Z9" s="5">
         <v>0.44221812461130333</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AA9" s="5">
         <v>0.2457865083183538</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AB9" s="5">
         <v>64134.601426773574</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AC9" s="5">
         <v>123683.76638849304</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AD9" s="5">
         <v>120000</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AE9" s="5">
         <v>0.80683934958034376</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AF9" s="5">
         <v>2.3358501583125819</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AG9" s="5">
         <v>4.7374247557541427</v>
       </c>
-      <c r="AG9" s="5"/>
       <c r="AH9" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5">
         <v>3</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AK9" s="5">
         <v>7.0732749140667242</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AL9" s="5">
         <v>20220428</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AM9" s="5">
         <v>0.87409967346582573</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AN9" s="5">
         <v>0.62933083770848008</v>
       </c>
-      <c r="AM9" s="6">
+      <c r="AO9" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.0198249532381156</v>
       </c>
-      <c r="AN9" s="12">
+      <c r="AP9" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>8.5839465637655502E-3</v>
       </c>
+      <c r="AQ9">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>2.0376283374642007E-2</v>
+      </c>
+      <c r="AR9">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>807.99355828672105</v>
+      </c>
+      <c r="AT9" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.0558939352557604E-2</v>
+      </c>
+      <c r="AU9" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>1.9142885916323155E-2</v>
+      </c>
+      <c r="AV9" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.26881100996131E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:48">
       <c r="A10">
         <v>0.05</v>
       </c>
@@ -1893,70 +2251,98 @@
         <v>7.5273648260999941</v>
       </c>
       <c r="T10" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>4.0618354078132022</v>
+      </c>
+      <c r="U10" s="5">
         <v>4.9700308843627763</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <v>2.1720677903871892</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <v>4.6736079221438992E-2</v>
       </c>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <v>3.6921502584936802E-2</v>
       </c>
-      <c r="X10" s="5">
+      <c r="Y10" s="5">
         <v>0.3836482161841242</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Z10" s="5">
         <v>0.48762211514814141</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AA10" s="5">
         <v>0.28925099248542585</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AB10" s="5">
         <v>103408.82931538009</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AC10" s="5">
         <v>169457.62112798926</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AD10" s="5">
         <v>170000</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AE10" s="5">
         <v>1.5145509155251662</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AF10" s="5">
         <v>3.465529418286792</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AG10" s="5">
         <v>4.0529183434194351</v>
       </c>
-      <c r="AG10" s="5"/>
       <c r="AH10" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5">
         <v>3</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AK10" s="5">
         <v>7.5184477617062271</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AL10" s="5">
         <v>20220426</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AM10" s="5">
         <v>0.91504335696047756</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AN10" s="5">
         <v>0.73484035592458019</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AO10" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.99881538033564565</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AP10" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>8.3573072327442696E-3</v>
       </c>
+      <c r="AQ10">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>1.7432131784149624E-2</v>
+      </c>
+      <c r="AR10">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>900.69260546117926</v>
+      </c>
+      <c r="AT10" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.5992188431647354E-2</v>
+      </c>
+      <c r="AU10" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>2.4349495664391624E-2</v>
+      </c>
+      <c r="AV10" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-3.0743890789791638E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:48">
       <c r="A11">
         <v>0.05</v>
       </c>
@@ -2015,70 +2401,98 @@
         <v>7.3902222033000005</v>
       </c>
       <c r="T11" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>3.5867533123860662</v>
+      </c>
+      <c r="U11" s="5">
         <v>4.0715038327380801</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <v>1.943021598245334</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <v>5.2776401275214518E-2</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <v>4.1693357007419468E-2</v>
       </c>
-      <c r="X11" s="5">
+      <c r="Y11" s="5">
         <v>0.40114985386344293</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <v>0.49432210065157484</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AA11" s="5">
         <v>0.31157909394949063</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AB11" s="5">
         <v>121944.00634999289</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AC11" s="5">
         <v>185511.35211679732</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AD11" s="5">
         <v>190000</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AE11" s="5">
         <v>1.8151087428376771</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AF11" s="5">
         <v>3.8034688909139343</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AG11" s="5">
         <v>3.4976233331580517</v>
       </c>
-      <c r="AG11" s="5"/>
       <c r="AH11" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5">
         <v>3</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AK11" s="5">
         <v>7.3010922240719864</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AL11" s="5">
         <v>20220427</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AM11" s="5">
         <v>0.94407958732780584</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AN11" s="5">
         <v>0.79770614805633389</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AO11" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.98793947234925972</v>
       </c>
-      <c r="AN11" s="12">
+      <c r="AP11" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>8.873995550182312E-3</v>
       </c>
+      <c r="AQ11">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>1.5043735330598038E-2</v>
+      </c>
+      <c r="AR11">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>832.79534697852898</v>
+      </c>
+      <c r="AT11" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.0334970346946632E-2</v>
+      </c>
+      <c r="AU11" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>2.9208965897128944E-2</v>
+      </c>
+      <c r="AV11" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-3.2441430928267886E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:48">
       <c r="A12">
         <v>0.05</v>
       </c>
@@ -2137,70 +2551,98 @@
         <v>7.6593960791999969</v>
       </c>
       <c r="T12" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.2517631316609847</v>
+      </c>
+      <c r="U12" s="5">
         <v>9.3262234415083025</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>3.1812972517381151</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>3.3247049452170704E-2</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>2.6265169067214857E-2</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Y12" s="5">
         <v>0.31297610655129149</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Z12" s="5">
         <v>0.61736186610135635</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AA12" s="5">
         <v>0.24395179559485419</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <v>64222.794635722435</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <v>124785.32729428516</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <v>120000</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AE12" s="5">
         <v>0.82127520611507743</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <v>2.4076329475390126</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AG12" s="5">
         <v>5.6198320902720846</v>
       </c>
-      <c r="AG12" s="5"/>
       <c r="AH12" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5">
         <v>2</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AK12" s="5">
         <v>8.0274650378110977</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AL12" s="5">
         <v>20220426</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AM12" s="5">
         <v>0.86638342950562974</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AN12" s="5">
         <v>0.57387748723792154</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AO12" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.0480545665487435</v>
       </c>
-      <c r="AN12" s="12">
+      <c r="AP12" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>2.4147644424363235E-4</v>
       </c>
+      <c r="AQ12">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>2.4350256641013694E-2</v>
+      </c>
+      <c r="AR12">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>31719.019646786823</v>
+      </c>
+      <c r="AT12" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.4285081663168379E-2</v>
+      </c>
+      <c r="AU12" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>1.4526558107412012E-2</v>
+      </c>
+      <c r="AV12" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.8961967789002325E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:48">
       <c r="A13">
         <v>0.05</v>
       </c>
@@ -2259,70 +2701,98 @@
         <v>7.9795315970999967</v>
       </c>
       <c r="T13" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.037412063473325</v>
+      </c>
+      <c r="U13" s="5">
         <v>6.8605942251348786</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="5">
         <v>2.712171108583016</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <v>4.0275932140298593E-2</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <v>3.1817986390835891E-2</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <v>0.3518738804227674</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Z13" s="5">
         <v>0.62669061063757303</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AA13" s="5">
         <v>0.26833641480097925</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AB13" s="5">
         <v>84067.526691172621</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AC13" s="5">
         <v>148500.18653327556</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AD13" s="5">
         <v>150000</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AE13" s="5">
         <v>1.1630962763933352</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AF13" s="5">
         <v>2.9421195336266717</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AG13" s="5">
         <v>5.1318429986559702</v>
       </c>
-      <c r="AG13" s="5"/>
       <c r="AH13" s="5">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5">
         <v>4</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AK13" s="5">
         <v>8.0739625322826427</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AL13" s="5">
         <v>20220426</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AM13" s="5">
         <v>0.89512207061206239</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AN13" s="5">
         <v>0.65061916390089536</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AO13" s="6">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.011834145154205</v>
       </c>
-      <c r="AN13" s="12">
+      <c r="AP13" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-1.1107158252966765E-4</v>
       </c>
+      <c r="AQ13">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>2.207272781436307E-2</v>
+      </c>
+      <c r="AR13">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-71841.342451104749</v>
+      </c>
+      <c r="AT13" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>1.8570390931726112E-2</v>
+      </c>
+      <c r="AU13" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>1.8459319349196444E-2</v>
+      </c>
+      <c r="AV13" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.1705541208572481E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" ht="15.75" thickBot="1">
+    <row r="14" spans="1:48" ht="15.75" thickBot="1">
       <c r="A14">
         <v>0.05</v>
       </c>
@@ -2381,70 +2851,98 @@
         <v>8.3613929102999975</v>
       </c>
       <c r="T14" s="9">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>4.8835479172387748</v>
+      </c>
+      <c r="U14" s="9">
         <v>5.507779838814054</v>
       </c>
-      <c r="U14" s="9">
+      <c r="V14" s="9">
         <v>2.404187917225213</v>
       </c>
-      <c r="V14" s="9">
+      <c r="W14" s="9">
         <v>4.6736079221438992E-2</v>
       </c>
-      <c r="W14" s="9">
+      <c r="X14" s="9">
         <v>3.6921502584936802E-2</v>
       </c>
-      <c r="X14" s="9">
+      <c r="Y14" s="9">
         <v>0.38432339286822947</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Z14" s="9">
         <v>0.63874059458397847</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="AA14" s="9">
         <v>0.28897410117628375</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AB14" s="9">
         <v>103431.01256398944</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AC14" s="9">
         <v>169656.38012460963</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AD14" s="9">
         <v>170000</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AE14" s="9">
         <v>1.5181058711490523</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AF14" s="9">
         <v>3.4778449930612227</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AG14" s="9">
         <v>4.9829532676843247</v>
       </c>
-      <c r="AG14" s="9"/>
       <c r="AH14" s="9">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9">
         <v>4</v>
       </c>
-      <c r="AI14" s="9">
+      <c r="AK14" s="9">
         <v>8.4607982607455483</v>
       </c>
-      <c r="AJ14" s="9">
+      <c r="AL14" s="9">
         <v>20220427</v>
       </c>
-      <c r="AK14" s="9">
+      <c r="AM14" s="9">
         <v>0.91397134835484783</v>
       </c>
-      <c r="AL14" s="9">
+      <c r="AN14" s="9">
         <v>0.69241664214757825</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AO14" s="10">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.0118886113249264</v>
       </c>
-      <c r="AN14" s="13">
+      <c r="AP14" s="13">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-7.1691587482543978E-4</v>
       </c>
+      <c r="AQ14">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>2.1432333611549073E-2</v>
+      </c>
+      <c r="AR14">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-11663.004271367117</v>
+      </c>
+      <c r="AT14" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.0962507802417353E-2</v>
+      </c>
+      <c r="AU14" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>2.0245591927591913E-2</v>
+      </c>
+      <c r="AV14" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.5773571419021639E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:48">
       <c r="A15">
         <v>0.05</v>
       </c>
@@ -2502,70 +3000,102 @@
       <c r="S15" s="12">
         <v>10.035639908099999</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>4.861263702574127</v>
+      </c>
+      <c r="U15">
         <v>3.7555050771094471</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.9394878743804205</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>6.3934057048509796E-2</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>5.0507905068322742E-2</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.46432045982665726</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.3200923803108826</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.33584026470693235</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>159482.10034200514</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>225090.68597857744</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>230000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2.672247727547814</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>5.1743762055258715</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>8.8406398987840227</v>
       </c>
       <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ15">
         <v>4</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>14.015016104309893</v>
       </c>
-      <c r="AJ15">
+      <c r="AL15">
         <v>20220426</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>0.93583687685925665</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>0.60209340053503568</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AO15" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.3965244102668577</v>
       </c>
-      <c r="AN15" s="12">
+      <c r="AP15" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.513401736597011E-2</v>
       </c>
+      <c r="AQ15">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.8024748271091771E-2</v>
+      </c>
+      <c r="AR15">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-399.28515055804922</v>
+      </c>
+      <c r="AS15" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>1.0093978174936158</v>
+      </c>
+      <c r="AT15" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.9798904162550335E-2</v>
+      </c>
+      <c r="AU15" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>4.6648867965802254E-3</v>
+      </c>
+      <c r="AV15" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-3.4135152885959461E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:48">
       <c r="A16">
         <v>0.05</v>
       </c>
@@ -2623,70 +3153,102 @@
       <c r="S16" s="12">
         <v>10.011705633600007</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>4.9536024563741057</v>
+      </c>
+      <c r="U16">
         <v>3.8083411703546681</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1.979339938868327</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>6.3934057048509796E-2</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>5.0507905068322742E-2</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.45865850555109139</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.348182537629256</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.33800842007641979</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>159204.17624400964</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>223257.09969769185</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>220000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2.6288888483874002</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>5.0581031772259015</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>11.446856981204281</v>
       </c>
       <c r="AH16">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ16">
         <v>4</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>16.504960158430183</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>20220427</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>0.94352280335780703</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>0.51139188459719154</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AO16" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.648566264577171</v>
       </c>
-      <c r="AN16" s="12">
+      <c r="AP16" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.5674853861258798E-2</v>
       </c>
+      <c r="AQ16">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>4.9234428750496918E-2</v>
+      </c>
+      <c r="AR16">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-389.94206890917621</v>
+      </c>
+      <c r="AS16" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.98577839109657528</v>
+      </c>
+      <c r="AT16" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.000574896659036E-2</v>
+      </c>
+      <c r="AU16" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-5.6691048946684378E-3</v>
+      </c>
+      <c r="AV16" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-4.3928308081919436E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:48">
       <c r="A17">
         <v>0.05</v>
       </c>
@@ -2744,70 +3306,102 @@
       <c r="S17" s="12">
         <v>9.9935314314000045</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>4.8907623503546054</v>
+      </c>
+      <c r="U17">
         <v>3.7774243525953048</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1.9584526112540919</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>6.3934057048509796E-2</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>5.0507905068322742E-2</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.46084267483889091</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1.3657594860390512</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.33716766602289361</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>159311.94795412355</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>223965.3173775186</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>220000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>2.6455940605491897</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>5.1027690810453992</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>10.67296782399999</v>
       </c>
       <c r="AH17">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ17">
         <v>4</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>15.775736905045388</v>
       </c>
-      <c r="AJ17">
+      <c r="AL17">
         <v>20220428</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>0.94053921849528399</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>0.53762343128306544</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AO17" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.5785948153900335</v>
       </c>
-      <c r="AN17" s="12">
+      <c r="AP17" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.6003818953271703E-2</v>
       </c>
+      <c r="AQ17">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>4.5905830285982142E-2</v>
+      </c>
+      <c r="AR17">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-384.31014495825258</v>
+      </c>
+      <c r="AS17" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.97154081743172183</v>
+      </c>
+      <c r="AT17" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.3323380595182269E-2</v>
+      </c>
+      <c r="AU17" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.6804383580894334E-3</v>
+      </c>
+      <c r="AV17" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-4.0610676453327527E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:48">
       <c r="A18">
         <v>0.05</v>
       </c>
@@ -2865,70 +3459,102 @@
       <c r="S18" s="12">
         <v>9.7680633618000048</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.1431800980935627</v>
+      </c>
+      <c r="U18">
         <v>4.2769680971710544</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>2.1120670090106777</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>5.8488565005636581E-2</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>4.6205966354452899E-2</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.44122549599277755</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1.4493635788929642</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.32152302435606306</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>141152.68113295242</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>208092.00520248146</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>210000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2.2838756660964963</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>4.6248832637064421</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>4.8670047732696409</v>
       </c>
       <c r="AH18">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ18">
         <v>4</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>9.4918880369760821</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <v>20220428</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <v>0.93020771001242986</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>0.737250747463291</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AO18" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>0.97172670624722168</v>
       </c>
-      <c r="AN18" s="12">
+      <c r="AP18" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.5136541196112777E-2</v>
       </c>
+      <c r="AQ18">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>2.0933623974802432E-2</v>
+      </c>
+      <c r="AR18">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-388.60013736936014</v>
+      </c>
+      <c r="AS18" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.98238597150465445</v>
+      </c>
+      <c r="AT18" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>4.6631251832101608E-2</v>
+      </c>
+      <c r="AU18" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>2.1494710635988831E-2</v>
+      </c>
+      <c r="AV18" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.1857313173534972E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:48">
       <c r="A19">
         <v>0.05</v>
       </c>
@@ -2986,70 +3612,102 @@
       <c r="S19" s="12">
         <v>9.8395357191000077</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.155407554289944</v>
+      </c>
+      <c r="U19">
         <v>4.2699340135919019</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2.100611975782475</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>5.8488565005636588E-2</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>4.6205966354452906E-2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.44419262057129771</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1.4592748243254487</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.32038027154097543</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>141280.8540171955</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>209023.87179475819</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>210000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2.3043765284847839</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>4.6841281648100637</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>7.2794094668308142</v>
       </c>
       <c r="AH19">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ19">
         <v>4</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>11.963537631640879</v>
       </c>
-      <c r="AJ19">
+      <c r="AL19">
         <v>20220426</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <v>0.92606067416721327</v>
       </c>
-      <c r="AL19">
+      <c r="AN19">
         <v>0.6374616681449724</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AO19" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.2158640380173493</v>
       </c>
-      <c r="AN19" s="12">
+      <c r="AP19" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.5287728352250134E-2</v>
       </c>
+      <c r="AQ19">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.1309692025405983E-2</v>
+      </c>
+      <c r="AR19">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-389.10318799847727</v>
+      </c>
+      <c r="AS19" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.98365768974013079</v>
+      </c>
+      <c r="AT19" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>3.5956464969760918E-2</v>
+      </c>
+      <c r="AU19" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>1.0668736617510784E-2</v>
+      </c>
+      <c r="AV19" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.253210003587567E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:48">
       <c r="A20">
         <v>0.05</v>
       </c>
@@ -3107,70 +3765,102 @@
       <c r="S20" s="12">
         <v>9.8114383748999963</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.2255435594027615</v>
+      </c>
+      <c r="U20">
         <v>4.3216097784042171</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>2.1394817739264202</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>5.8488565005636581E-2</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>4.6205966354452899E-2</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.43925994736671392</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1.4735149668827514</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.32228595395521081</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>141067.10979512139</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>207473.54708539392</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>210000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>2.2703202922043868</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>4.5858948154972348</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>5.3543205202187902</v>
       </c>
       <c r="AH20">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ20">
         <v>4</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>9.9402153357160259</v>
       </c>
-      <c r="AJ20">
+      <c r="AL20">
         <v>20220427</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>0.93298056716417943</v>
       </c>
-      <c r="AL20">
+      <c r="AN20">
         <v>0.72070351541970934</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AO20" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.0131251867356648</v>
       </c>
-      <c r="AN20" s="12">
+      <c r="AP20" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.5501977704049272E-2</v>
       </c>
+      <c r="AQ20">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>2.3029632727384827E-2</v>
+      </c>
+      <c r="AR20">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-384.73245050881326</v>
+      </c>
+      <c r="AS20" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.97260841110620633</v>
+      </c>
+      <c r="AT20" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>4.5201502880814634E-2</v>
+      </c>
+      <c r="AU20" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>1.9699525176765362E-2</v>
+      </c>
+      <c r="AV20" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.3287062124821947E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:48" ht="15.75" thickBot="1">
       <c r="A21">
         <v>0.05</v>
       </c>
@@ -3228,191 +3918,255 @@
       <c r="S21" s="12">
         <v>9.528011321100001</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.4440500952336341</v>
+      </c>
+      <c r="U21">
         <v>4.9988509120315072</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2.3330317782531687</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>5.2776401275214518E-2</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>4.1693357007419468E-2</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.416129698649714</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1.5504606531507716</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.30551068372231716</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>122527.41383858513</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>190101.3524367522</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>190000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1.9060403058165756</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>4.0839612258663669</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>8.8478813948506687</v>
       </c>
       <c r="AH21">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ21">
         <v>4</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <v>12.931842620717035</v>
       </c>
-      <c r="AJ21">
+      <c r="AL21">
         <v>20220428</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
         <v>0.92128476997194697</v>
       </c>
-      <c r="AL21">
+      <c r="AN21">
         <v>0.5510062389041086</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AO21" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.357244674140885</v>
       </c>
-      <c r="AN21" s="12">
+      <c r="AP21" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.4004488924616908E-2</v>
       </c>
+      <c r="AQ21">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.8055894892625147E-2</v>
+      </c>
+      <c r="AR21">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-396.92623121540009</v>
+      </c>
+      <c r="AS21" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>1.0034344401108464</v>
+      </c>
+      <c r="AT21" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.785852596415777E-2</v>
+      </c>
+      <c r="AU21" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>3.8540370395408613E-3</v>
+      </c>
+      <c r="AV21" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.4917875311056749E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22">
+    <row r="22" spans="1:48" s="17" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A22" s="16">
         <v>0.05</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="17">
         <v>0.47399999999999998</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="17">
         <v>90</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="17">
         <v>0.03</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="17">
         <v>9.5175470472690218E-2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="17">
         <v>0.10014365079365078</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="17">
         <v>4.3745896414342636E-2</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="17">
         <v>5.723651343302489E-2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="17">
         <v>2.8251309523809529E-2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="17">
         <v>2E-3</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="17">
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="17">
         <v>0.39899654139561419</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="17">
         <v>0.04</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="17">
         <v>1.9035094094538043</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="17">
         <v>0.6</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="17">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="17">
         <v>0.31520726770253521</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="17">
         <v>979.41674000000023</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="18">
         <v>9.608078219400003</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="17">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.5851866451124845</v>
+      </c>
+      <c r="U22" s="17">
         <v>5.0930731917915795</v>
       </c>
-      <c r="U22">
+      <c r="V22" s="17">
         <v>2.3883512746926714</v>
       </c>
-      <c r="V22">
+      <c r="W22" s="17">
         <v>5.2776401275214518E-2</v>
       </c>
-      <c r="W22">
+      <c r="X22" s="17">
         <v>4.1693357007419468E-2</v>
       </c>
-      <c r="X22">
+      <c r="Y22" s="17">
         <v>0.41292588788009887</v>
       </c>
-      <c r="Y22">
+      <c r="Z22" s="17">
         <v>1.5935143080265466</v>
       </c>
-      <c r="Z22">
+      <c r="AA22" s="17">
         <v>0.30678247363507904</v>
       </c>
-      <c r="AA22">
+      <c r="AB22" s="17">
         <v>122405.14594118774</v>
       </c>
-      <c r="AB22">
+      <c r="AC22" s="17">
         <v>189124.3606215211</v>
       </c>
-      <c r="AC22">
+      <c r="AD22" s="17">
         <v>190000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22" s="17">
         <v>1.8864991445410955</v>
       </c>
-      <c r="AE22">
+      <c r="AF22" s="17">
         <v>4.0228915742875184</v>
       </c>
-      <c r="AF22">
+      <c r="AG22" s="17">
         <v>8.8206936948510695</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="17">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ22" s="17">
         <v>4</v>
       </c>
-      <c r="AI22">
+      <c r="AK22" s="17">
         <v>12.843585269138588</v>
       </c>
-      <c r="AJ22">
+      <c r="AL22" s="17">
         <v>20220427</v>
       </c>
-      <c r="AK22">
+      <c r="AM22" s="17">
         <v>0.92604400710460233</v>
       </c>
-      <c r="AL22">
+      <c r="AN22" s="17">
         <v>0.55690326497964282</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AO22" s="19">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.3367486167218809</v>
       </c>
-      <c r="AN22" s="12">
+      <c r="AP22" s="18">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.4525091751404989E-2</v>
       </c>
+      <c r="AQ22" s="17">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.7938957039665329E-2</v>
+      </c>
+      <c r="AR22" s="17">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-391.76523035228104</v>
+      </c>
+      <c r="AS22" s="19">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.99038736585818732</v>
+      </c>
+      <c r="AT22" s="20">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.898520390921536E-2</v>
+      </c>
+      <c r="AU22" s="20">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>4.4601121578103711E-3</v>
+      </c>
+      <c r="AV22" s="20">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-2.3791197365999158E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" ht="15.75" thickBot="1">
+    <row r="23" spans="1:48" ht="15.75" thickBot="1">
       <c r="A23">
         <v>0.05</v>
       </c>
@@ -3470,70 +4224,102 @@
       <c r="S23" s="12">
         <v>9.581003535000006</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.431192221168974</v>
+      </c>
+      <c r="U23">
         <v>4.97209219781901</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2.3087805228799652</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>5.2776401275214511E-2</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>4.1693357007419468E-2</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.41954980371337303</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>1.6366392417692019</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.30416816852791789</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>122656.48115418191</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>191141.5397227733</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>190000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1.9269561290924326</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>4.149811313831032</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>7.7122838747717113</v>
       </c>
       <c r="AH23">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ23">
         <v>4</v>
       </c>
-      <c r="AI23">
+      <c r="AK23">
         <v>11.862095188602744</v>
       </c>
-      <c r="AJ23">
+      <c r="AL23">
         <v>20220426</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <v>0.91627116222388982</v>
       </c>
-      <c r="AL23">
+      <c r="AN23">
         <v>0.593516706452069</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AO23" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.2380848358180609</v>
       </c>
-      <c r="AN23" s="12">
+      <c r="AP23" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.5023572589955551E-2</v>
       </c>
+      <c r="AQ23">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.3171541459768132E-2</v>
+      </c>
+      <c r="AR23">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-382.87912329695945</v>
+      </c>
+      <c r="AS23" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.96792317690670715</v>
+      </c>
+      <c r="AT23" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>3.3246682500602573E-2</v>
+      </c>
+      <c r="AU23" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>8.2231099106470223E-3</v>
+      </c>
+      <c r="AV23" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.9529718774611939E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" ht="15.75" thickBot="1">
+    <row r="24" spans="1:48" ht="15.75" thickBot="1">
       <c r="A24">
         <v>0.05</v>
       </c>
@@ -3591,71 +4377,103 @@
       <c r="S24" s="4">
         <v>8.363875592400003</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.9435374805949781</v>
+      </c>
+      <c r="U24" s="2">
         <v>10.152770906700084</v>
       </c>
-      <c r="U24" s="2">
+      <c r="V24" s="2">
         <v>3.455664128745402</v>
       </c>
-      <c r="V24" s="2">
+      <c r="W24" s="2">
         <v>3.3247049452170697E-2</v>
       </c>
-      <c r="W24" s="2">
+      <c r="X24" s="2">
         <v>2.6265169067214853E-2</v>
       </c>
-      <c r="X24" s="2">
+      <c r="Y24" s="2">
         <v>0.31369809615328093</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Z24" s="2">
         <v>1.7340326134224453</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AA24" s="2">
         <v>0.24363508212892868</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AB24" s="2">
         <v>64238.01880489046</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AC24" s="2">
         <v>124977.16111920589</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AD24" s="2">
         <v>120000</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AE24" s="2">
         <v>0.82380225745864699</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AF24" s="2">
         <v>2.4203381118050249</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AG24" s="2">
         <v>7.1654293583012407</v>
       </c>
-      <c r="AG24" s="2"/>
       <c r="AH24" s="2">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2">
         <v>2</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AK24" s="2">
         <v>9.5857674701062656</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AL24" s="2">
         <v>20220428</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AM24" s="2">
         <v>0.86505357334917987</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AN24" s="2">
         <v>0.47658793086593038</v>
       </c>
-      <c r="AM24" s="3">
+      <c r="AO24" s="3">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.1460915892647372</v>
       </c>
-      <c r="AN24" s="4">
+      <c r="AP24" s="4">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-1.6424787547408792E-2</v>
       </c>
+      <c r="AQ24">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.2338618550272334E-2</v>
+      </c>
+      <c r="AR24">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-509.22275665717854</v>
+      </c>
+      <c r="AS24" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>1.2873214505208868</v>
+      </c>
+      <c r="AT24" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.2852277144341914E-2</v>
+      </c>
+      <c r="AU24" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>6.4274895969331225E-3</v>
+      </c>
+      <c r="AV24" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.0394772307828783E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:48">
       <c r="A25">
         <v>0.05</v>
       </c>
@@ -3713,70 +4531,102 @@
       <c r="S25" s="12">
         <v>9.3640165047000039</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.8356501278364767</v>
+      </c>
+      <c r="U25">
         <v>6.1097999921849429</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2.6539240839903835</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>4.6736079221438992E-2</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3.6921502584936802E-2</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.38707636817329144</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1.87232855827053</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.28785222598339588</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>103520.89200581668</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>170465.60137974247</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>170000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1.5326224289956358</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>3.5283663768635272</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>7.6095773888369536</v>
       </c>
       <c r="AH25">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ25">
         <v>4</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>11.137943765700481</v>
       </c>
-      <c r="AJ25">
+      <c r="AL25">
         <v>20220428</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <v>0.90963261352691283</v>
       </c>
-      <c r="AL25">
+      <c r="AN25">
         <v>0.57129155508693652</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AO25" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.1894408515950505</v>
       </c>
-      <c r="AN25" s="12">
+      <c r="AP25" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.4267944300804072E-2</v>
       </c>
+      <c r="AQ25">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.2729787433115068E-2</v>
+      </c>
+      <c r="AR25">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-385.85948560915995</v>
+      </c>
+      <c r="AS25" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.97545756983133969</v>
+      </c>
+      <c r="AT25" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>3.2796370210794054E-2</v>
+      </c>
+      <c r="AU25" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>8.5284259099899784E-3</v>
+      </c>
+      <c r="AV25" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.3939709010644938E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:48">
       <c r="A26">
         <v>0.05</v>
       </c>
@@ -3834,70 +4684,102 @@
       <c r="S26" s="12">
         <v>9.367779849599998</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.774744876036964</v>
+      </c>
+      <c r="U26">
         <v>6.0396388686415552</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2.6072053065240381</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>4.6736079221438992E-2</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3.6921502584936802E-2</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.39056161080255553</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.9406077215117736</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.28644813074529524</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>103633.38160989464</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>171487.32217341187</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>170000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.5510496659392174</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>3.5930349735630336</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>7.6817898415929999</v>
       </c>
       <c r="AH26">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ26">
         <v>4</v>
       </c>
-      <c r="AI26">
+      <c r="AK26">
         <v>11.274824815156034</v>
       </c>
-      <c r="AJ26">
+      <c r="AL26">
         <v>20220426</v>
       </c>
-      <c r="AK26">
+      <c r="AM26">
         <v>0.90421302597920772</v>
       </c>
-      <c r="AL26">
+      <c r="AN26">
         <v>0.56266121923488155</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AO26" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.2035749127513353</v>
       </c>
-      <c r="AN26" s="12">
+      <c r="AP26" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.4798103030962807E-2</v>
       </c>
+      <c r="AQ26">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.3040382635444759E-2</v>
+      </c>
+      <c r="AR26">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-377.76195372296934</v>
+      </c>
+      <c r="AS26" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.9549869086971049</v>
+      </c>
+      <c r="AT26" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>3.2491664088260763E-2</v>
+      </c>
+      <c r="AU26" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>7.6935610572979596E-3</v>
+      </c>
+      <c r="AV26" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.4244415133178229E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:48">
       <c r="A27">
         <v>0.05</v>
       </c>
@@ -3955,70 +4837,102 @@
       <c r="S27" s="12">
         <v>9.3634600815000013</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.8438660211040503</v>
+      </c>
+      <c r="U27">
         <v>6.1194706480710384</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2.6603806918706479</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>4.6736079221438992E-2</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3.6921502584936802E-2</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.38660027207261372</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1.9704741180332972</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.28804542809095318</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>103505.41354823319</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>170325.79321609944</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>170000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1.5301094849521868</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>3.5195940603959506</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>7.6670000352726673</v>
       </c>
       <c r="AH27">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ27">
         <v>4</v>
       </c>
-      <c r="AI27">
+      <c r="AK27">
         <v>11.186594095668617</v>
       </c>
-      <c r="AJ27">
+      <c r="AL27">
         <v>20220427</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
         <v>0.91037926535741776</v>
       </c>
-      <c r="AL27">
+      <c r="AN27">
         <v>0.56948505081156042</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AO27" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.1947072981889142</v>
       </c>
-      <c r="AN27" s="12">
+      <c r="AP27" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.5020342169646163E-2</v>
       </c>
+      <c r="AQ27">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.2976769744438285E-2</v>
+      </c>
+      <c r="AR27">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-374.23389408556676</v>
+      </c>
+      <c r="AS27" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.94606793013503154</v>
+      </c>
+      <c r="AT27" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>3.337401393893949E-2</v>
+      </c>
+      <c r="AU27" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>8.3536717692933235E-3</v>
+      </c>
+      <c r="AV27" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.3362065282499502E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:48">
       <c r="A28">
         <v>0.05</v>
       </c>
@@ -4076,70 +4990,102 @@
       <c r="S28" s="12">
         <v>9.3767582885999996</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>5.76982724141115</v>
+      </c>
+      <c r="U28">
         <v>6.0301198890050731</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2.5996499977198084</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>4.6736079221438992E-2</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3.6921502584936802E-2</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.39130496246093227</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>2.1175736180782505</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.28615096564130232</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>103657.18910100128</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>171704.84650911411</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>170000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1.5549870419155294</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>3.60693104718885</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>7.5971500748129692</v>
       </c>
       <c r="AH28">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ28">
         <v>4</v>
       </c>
-      <c r="AI28">
+      <c r="AK28">
         <v>11.204081122001819</v>
       </c>
-      <c r="AJ28">
+      <c r="AL28">
         <v>20220426</v>
       </c>
-      <c r="AK28">
+      <c r="AM28">
         <v>0.90306752343919072</v>
       </c>
-      <c r="AL28">
+      <c r="AN28">
         <v>0.56527901481447862</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AO28" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.1948778860625455</v>
       </c>
-      <c r="AN28" s="12">
+      <c r="AP28" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.6038031412674051E-2</v>
       </c>
+      <c r="AQ28">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.2676335930411873E-2</v>
+      </c>
+      <c r="AR28">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-360.11778847596935</v>
+      </c>
+      <c r="AS28" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.91038223991108347</v>
+      </c>
+      <c r="AT28" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>3.3984827750545454E-2</v>
+      </c>
+      <c r="AU28" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>7.9467963378714035E-3</v>
+      </c>
+      <c r="AV28" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.2751251470893538E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" ht="15.75" thickBot="1">
+    <row r="29" spans="1:48" ht="15.75" thickBot="1">
       <c r="A29">
         <v>0.05</v>
       </c>
@@ -4197,70 +5143,102 @@
       <c r="S29" s="12">
         <v>9.0401618523000007</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>6.0697941981909542</v>
+      </c>
+      <c r="U29">
         <v>7.7259805777975528</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>3.0434487932139733</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>4.0275932140298593E-2</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>3.1817986390835891E-2</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.3534615900857897</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>2.1778710185494647</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.26766848726516879</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>84110.335698434952</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>148946.5552273331</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>150000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1.1700989617135538</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>2.9703676541090465</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>7.6391267093703323</v>
       </c>
       <c r="AH29">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ29">
         <v>2</v>
       </c>
-      <c r="AI29">
+      <c r="AK29">
         <v>10.609494363479378</v>
       </c>
-      <c r="AJ29">
+      <c r="AL29">
         <v>20220428</v>
       </c>
-      <c r="AK29">
+      <c r="AM29">
         <v>0.89243953479193994</v>
       </c>
-      <c r="AL29">
+      <c r="AN29">
         <v>0.52624284252619902</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AO29" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.1735956210540752</v>
       </c>
-      <c r="AN29" s="12">
+      <c r="AP29" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.2769662299028756E-2</v>
       </c>
+      <c r="AQ29">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.3058747740983836E-2</v>
+      </c>
+      <c r="AR29">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-397.02661082881366</v>
+      </c>
+      <c r="AS29" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>1.0036882010197079</v>
+      </c>
+      <c r="AT29" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>3.0000793299943145E-2</v>
+      </c>
+      <c r="AU29" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>7.2311310009143884E-3</v>
+      </c>
+      <c r="AV29" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.0275138840355448E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" ht="15.75" thickBot="1">
+    <row r="30" spans="1:48" ht="15.75" thickBot="1">
       <c r="A30">
         <v>0.05</v>
       </c>
@@ -4318,71 +5296,103 @@
       <c r="S30" s="4">
         <v>8.4550165092000054</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>6.0169760678435118</v>
+      </c>
+      <c r="U30" s="2">
         <v>10.219895879099838</v>
       </c>
-      <c r="U30" s="2">
+      <c r="V30" s="2">
         <v>3.4679558081882131</v>
       </c>
-      <c r="V30" s="2">
+      <c r="W30" s="2">
         <v>3.3247049452170697E-2</v>
       </c>
-      <c r="W30" s="2">
+      <c r="X30" s="2">
         <v>2.6265169067214853E-2</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y30" s="2">
         <v>0.31469920168540161</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="Z30" s="2">
         <v>2.3551189885882189</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="AA30" s="2">
         <v>0.24319768753493021</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AB30" s="2">
         <v>64259.044021714617</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AC30" s="2">
         <v>125242.91318320189</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AD30" s="2">
         <v>130000</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AE30" s="2">
         <v>0.82730945688897939</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AF30" s="2">
         <v>2.4380404413564931</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AG30" s="2">
         <v>7.1935221857347118</v>
       </c>
-      <c r="AG30" s="2"/>
       <c r="AH30" s="2">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2">
         <v>2</v>
       </c>
-      <c r="AI30" s="2">
+      <c r="AK30" s="2">
         <v>9.6315626270912045</v>
       </c>
-      <c r="AJ30" s="2">
+      <c r="AL30" s="2">
         <v>20220426</v>
       </c>
-      <c r="AK30" s="2">
+      <c r="AM30" s="2">
         <v>0.86321802220507315</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AN30" s="2">
         <v>0.47220430456470402</v>
       </c>
-      <c r="AM30" s="3">
+      <c r="AO30" s="3">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.1391536156802278</v>
       </c>
-      <c r="AN30" s="4">
+      <c r="AP30" s="4">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-1.9530422468043714E-2</v>
       </c>
+      <c r="AQ30">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.2550738288884926E-2</v>
+      </c>
+      <c r="AR30">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-432.91518773003332</v>
+      </c>
+      <c r="AS30" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>1.0944149689608971</v>
+      </c>
+      <c r="AT30" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>2.559298810949881E-2</v>
+      </c>
+      <c r="AU30" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>6.0625656414550963E-3</v>
+      </c>
+      <c r="AV30" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-7.6540613426718876E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:48">
       <c r="A31">
         <v>0.05</v>
       </c>
@@ -4440,72 +5450,120 @@
       <c r="S31" s="12">
         <v>9.0946888733999955</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="5">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]-Tabelle1[[#This Row],[FdBR]]</f>
+        <v>6.0293714409929535</v>
+      </c>
+      <c r="U31">
         <v>7.6210294483522185</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>2.9669647838913655</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>4.0275932140298593E-2</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>3.1817986390835891E-2</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.35872028540853007</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2.4150202379255181</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.26548674874722761</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>84250.168322561905</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>150420.23744437966</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>150000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.1933675017312004</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>3.0653174324070425</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>7.6438130352245128</v>
       </c>
       <c r="AH31">
+        <f t="shared" si="0"/>
+        <v>232.49699999999999</v>
+      </c>
+      <c r="AJ31">
         <v>2</v>
       </c>
-      <c r="AI31">
+      <c r="AK31">
         <v>10.709130467631555</v>
       </c>
-      <c r="AJ31">
+      <c r="AL31">
         <v>20220426</v>
       </c>
-      <c r="AK31">
+      <c r="AM31">
         <v>0.88369621478023919</v>
       </c>
-      <c r="AL31">
+      <c r="AN31">
         <v>0.5162927680515792</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AO31" s="1">
         <f>Tabelle1[[#This Row],[Ftotal]]/Tabelle1[[#This Row],[FmeasuredUncor]]</f>
         <v>1.1775147689717516</v>
       </c>
-      <c r="AN31" s="12">
+      <c r="AP31" s="12">
         <f>Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
         <v>-2.3935336902203352E-2</v>
       </c>
+      <c r="AQ31">
+        <f>Tabelle1[[#This Row],[hUp]]-Tabelle1[[#This Row],[hDown]]</f>
+        <v>3.3167688624988319E-2</v>
+      </c>
+      <c r="AR31">
+        <f>Tabelle1[[#This Row],[FmeasuredUncor]]/Tabelle1[[#This Row],[hmin - hgr]]</f>
+        <v>-379.96911890397456</v>
+      </c>
+      <c r="AS31" s="1">
+        <f>Tabelle1[[#This Row],[Fmeas/(hmin-hgr)]]/$AR$33</f>
+        <v>0.96056664967530259</v>
+      </c>
+      <c r="AT31" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]</f>
+        <v>3.0268215655056042E-2</v>
+      </c>
+      <c r="AU31" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>6.33287875285269E-3</v>
+      </c>
+      <c r="AV31" s="15">
+        <f>Tabelle1[[#This Row],[hDown]]-Tabelle1[[#This Row],[hDownMin]]-Tabelle1[[#This Row],[hgr]]</f>
+        <v>-1.0007716485242551E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="36:44">
+      <c r="AR33">
+        <f>AVERAGE(AR15:AR31)</f>
+        <v>-395.56767771649618</v>
+      </c>
+    </row>
+    <row r="40" spans="36:44">
+      <c r="AJ40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK40">
+        <f>13.96/1000</f>
+        <v>1.396E-2</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Y2:Y31">
-    <cfRule type="colorScale" priority="5">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Z2:Z31">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4516,7 +5574,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM31">
+  <conditionalFormatting sqref="AO2:AO31">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP2:AP31">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I31">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2:AQ31">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK31">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15:AR31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT2:AT31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS15:AS31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4528,31 +5682,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN31">
+  <conditionalFormatting sqref="T2:T31">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I31">
+  <conditionalFormatting sqref="AF2:AF31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S31">
+  <conditionalFormatting sqref="AG2:AG31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
